--- a/Bug_Report_Nissan_Datsun_Care_Reports.xlsx
+++ b/Bug_Report_Nissan_Datsun_Care_Reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya\Documents\Bug Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68B5EF6-C30C-4DFF-BB39-A00DDE7B5E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF5CFB7-4A3C-444C-A155-7F8F00937889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{60BBD661-F751-4DB9-8AA6-43CCA411C8A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{60BBD661-F751-4DB9-8AA6-43CCA411C8A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Test Cases_Reports" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Open_Bugs!$A$4:$P$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Cases_Reports'!$A$6:$K$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="139">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -426,6 +427,36 @@
   </si>
   <si>
     <t>All the entries are same as that of portal but User is able to download the excel file of NC Claim Wear and Tear   report under Nissan care.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nissan Datsun Reports</t>
+  </si>
+  <si>
+    <t>No. of Test Case Executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module </t>
+  </si>
+  <si>
+    <t>DC _Claim Dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claim Periodic_Maintenance </t>
+  </si>
+  <si>
+    <t>DC_Claim Wear_and_Tear</t>
+  </si>
+  <si>
+    <t>NC _Claim Dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC _Claim Periodic_Maintenance </t>
+  </si>
+  <si>
+    <t>NC_Optional_Periodic_Maintenance</t>
   </si>
 </sst>
 </file>
@@ -435,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +475,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -533,8 +572,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +650,36 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor rgb="FF95B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -668,25 +767,25 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -701,61 +800,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -763,39 +862,78 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1869,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0B341B-DB07-417D-B1E9-386D53854E19}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F9" sqref="F9:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,11 +2020,15 @@
     <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="19" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="19" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>13</v>
       </c>
@@ -1894,7 +2036,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
@@ -1902,7 +2044,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>115</v>
       </c>
@@ -1910,7 +2052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>43</v>
       </c>
@@ -1918,7 +2060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>44</v>
       </c>
@@ -1926,13 +2068,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>116</v>
       </c>
       <c r="B7" s="33"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>117</v>
       </c>
@@ -1940,7 +2082,133 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F9" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="51">
+        <v>6</v>
+      </c>
+      <c r="H11" s="49">
+        <v>4</v>
+      </c>
+      <c r="I11" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="51">
+        <v>2</v>
+      </c>
+      <c r="H12" s="49">
+        <v>1</v>
+      </c>
+      <c r="I12" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="51">
+        <v>2</v>
+      </c>
+      <c r="H13" s="49">
+        <v>1</v>
+      </c>
+      <c r="I13" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="51">
+        <v>6</v>
+      </c>
+      <c r="H14" s="49">
+        <v>4</v>
+      </c>
+      <c r="I14" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="51">
+        <v>2</v>
+      </c>
+      <c r="H15" s="49">
+        <v>1</v>
+      </c>
+      <c r="I15" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="51">
+        <v>2</v>
+      </c>
+      <c r="H16" s="49">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="56">
+        <f>SUM(G11:G16)</f>
+        <v>20</v>
+      </c>
+      <c r="H17" s="57">
+        <f>SUM(H11:H16)</f>
+        <v>12</v>
+      </c>
+      <c r="I17" s="58">
+        <f>SUM(I11:I16)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1949,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014F5CD-E53E-47BF-BFB3-26C4C5AA7C2A}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,6 +2682,7 @@
       <c r="P13" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:P4" xr:uid="{6CEF6E5F-4300-4051-82BD-3AEE316F9CEC}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
@@ -2421,7 +2690,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2430,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93652AA8-32A9-4F4A-8B5C-BEBFA5AD65CE}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bug_Report_Nissan_Datsun_Care_Reports.xlsx
+++ b/Bug_Report_Nissan_Datsun_Care_Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya\Documents\Bug Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF5CFB7-4A3C-444C-A155-7F8F00937889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830150BF-B7C7-45FF-8621-2F5B7C37E37C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{60BBD661-F751-4DB9-8AA6-43CCA411C8A1}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="138">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -48,9 +48,6 @@
     <t>Project :-</t>
   </si>
   <si>
-    <t>Mercedes Benz</t>
-  </si>
-  <si>
     <t>Created_By :-</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Test Cases</t>
   </si>
   <si>
-    <t>Project Name: Mercedes Benz</t>
-  </si>
-  <si>
     <t>Created By:-</t>
   </si>
   <si>
@@ -457,6 +451,9 @@
   </si>
   <si>
     <t>NC_Optional_Periodic_Maintenance</t>
+  </si>
+  <si>
+    <t>Project Name: Nissan Datsun Reports</t>
   </si>
 </sst>
 </file>
@@ -771,15 +768,6 @@
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -803,9 +791,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -813,21 +798,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,12 +832,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -920,20 +884,53 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1612,7 +1609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{164E32B4-0051-4059-B07C-6A4D3949572C}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{164E32B4-0051-4059-B07C-6A4D3949572C}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0">
@@ -2029,178 +2026,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="B7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="33"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="33">
+      <c r="B8" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F10" s="52" t="s">
+      <c r="G10" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="40">
+        <v>6</v>
+      </c>
+      <c r="H11" s="38">
+        <v>4</v>
+      </c>
+      <c r="I11" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="53" t="s">
+      <c r="G12" s="40">
+        <v>2</v>
+      </c>
+      <c r="H12" s="38">
+        <v>1</v>
+      </c>
+      <c r="I12" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G13" s="40">
+        <v>2</v>
+      </c>
+      <c r="H13" s="38">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="40">
         <v>6</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H14" s="38">
         <v>4</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I14" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="51">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="40">
         <v>2</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H15" s="38">
         <v>1</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I15" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="51">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="40">
         <v>2</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H16" s="38">
         <v>1</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I16" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="51">
-        <v>6</v>
-      </c>
-      <c r="H14" s="49">
-        <v>4</v>
-      </c>
-      <c r="I14" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="51">
-        <v>2</v>
-      </c>
-      <c r="H15" s="49">
-        <v>1</v>
-      </c>
-      <c r="I15" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="51">
-        <v>2</v>
-      </c>
-      <c r="H16" s="49">
-        <v>1</v>
-      </c>
-      <c r="I16" s="47">
-        <v>1</v>
-      </c>
-    </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="56">
+      <c r="F17" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="44">
         <f>SUM(G11:G16)</f>
         <v>20</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="45">
         <f>SUM(H11:H16)</f>
         <v>12</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="46">
         <f>SUM(I11:I16)</f>
         <v>8</v>
       </c>
@@ -2217,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014F5CD-E53E-47BF-BFB3-26C4C5AA7C2A}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,448 +2235,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="52"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="33" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" s="44" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="E4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="F4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="G4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="H4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="I4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="J4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="K4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="L4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="M4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="N4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="O4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="P4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="42" t="s">
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43872</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="D5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>43872</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B6" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>43872</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="J7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>43872</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43872</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43872</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="37" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="L10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>43872</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="37" t="s">
+      <c r="B11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="L11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>43872</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="L12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>43872</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" s="11" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43872</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>43872</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43872</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>43872</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43872</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>43872</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:P4" xr:uid="{6CEF6E5F-4300-4051-82BD-3AEE316F9CEC}"/>
@@ -2699,650 +2696,650 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93652AA8-32A9-4F4A-8B5C-BEBFA5AD65CE}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="B3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
+      <c r="H3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17" t="s">
+      <c r="B4" s="58">
+        <v>43871</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="20">
-        <v>43871</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="17" t="s">
+      <c r="H4" s="34">
+        <v>9978</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="45">
-        <v>9978</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="I6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="22" t="s">
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="18"/>
+      <c r="I11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="26" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="D13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="F14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="C17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29" t="s">
+      <c r="F21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="C22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="I22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27"/>
-      <c r="I11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="26" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="26" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="F23" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>43</v>
+      <c r="I24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">

--- a/Bug_Report_Nissan_Datsun_Care_Reports.xlsx
+++ b/Bug_Report_Nissan_Datsun_Care_Reports.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya\Documents\Bug Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jitendra\GIT\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830150BF-B7C7-45FF-8621-2F5B7C37E37C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{60BBD661-F751-4DB9-8AA6-43CCA411C8A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Summery" sheetId="4" r:id="rId1"/>
-    <sheet name="Open_Bugs" sheetId="1" r:id="rId2"/>
-    <sheet name="Test Cases_Reports" sheetId="2" r:id="rId3"/>
+    <sheet name="Summery" sheetId="8" r:id="rId1"/>
+    <sheet name="Open Bugs" sheetId="5" r:id="rId2"/>
+    <sheet name="Closed_Bugs" sheetId="1" r:id="rId3"/>
+    <sheet name="Test Cases_Reports" sheetId="2" r:id="rId4"/>
+    <sheet name="InactiveDatsunCare" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Open_Bugs!$A$4:$P$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Cases_Reports'!$A$6:$K$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Closed_Bugs!$A$4:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Test Cases_Reports'!$A$6:$K$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-  </pivotCaches>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="191">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -114,9 +113,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Bug_ID_3</t>
   </si>
   <si>
@@ -378,21 +374,6 @@
     <t>Power_Task_I.D. :-9978</t>
   </si>
   <si>
-    <t>(All)</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of Test Case ID/Module</t>
-  </si>
-  <si>
     <t>Suggestion:</t>
   </si>
   <si>
@@ -429,41 +410,259 @@
     <t>Nissan Datsun Reports</t>
   </si>
   <si>
-    <t>No. of Test Case Executed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module </t>
-  </si>
-  <si>
-    <t>DC _Claim Dump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claim Periodic_Maintenance </t>
-  </si>
-  <si>
-    <t>DC_Claim Wear_and_Tear</t>
-  </si>
-  <si>
-    <t>NC _Claim Dump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC _Claim Periodic_Maintenance </t>
-  </si>
-  <si>
-    <t>NC_Optional_Periodic_Maintenance</t>
-  </si>
-  <si>
     <t>Project Name: Nissan Datsun Reports</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DC Claim Periodic Maintenance-Suggestion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Part number and rate should appear as NA instead of showing it blank and zero resp in the case of "Labour type"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NC Claim Periodic Maintenance-Suggestion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Part number and rate should appear as NA instead of showing it blank in the case of "Labour type"</t>
+    </r>
+  </si>
+  <si>
+    <t>1)Download the DC Claim Periodic Maintenance report .                                2)Check the details of the report against the details of portal for any selected service request number.</t>
+  </si>
+  <si>
+    <t>1)Download the NC Claim Periodic Maintenance report .                                2)Check the details of the report against the details of portal for any selected service request number.</t>
+  </si>
+  <si>
+    <t>Lead_Devp. :-</t>
+  </si>
+  <si>
+    <t>Power_Task_I.D. :-</t>
+  </si>
+  <si>
+    <t>Power ID</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Open_Date</t>
+  </si>
+  <si>
+    <t>Close_Date</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_01</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_02</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_03</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_04</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_05</t>
+  </si>
+  <si>
+    <t>Project Name: JLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JLR- PMS CLAIM</t>
+  </si>
+  <si>
+    <t>Power ID:</t>
+  </si>
+  <si>
+    <t>Dealer is logged in.</t>
+  </si>
+  <si>
+    <t>1)Click on Care Sales available in menu options.                                    2) Click on Datsun Care- Sales dropdown.                     3) Now View the Sales page.</t>
+  </si>
+  <si>
+    <t>test_user                       Welcome@123</t>
+  </si>
+  <si>
+    <t>Option to Add Agreement should not be available in the dealer login.</t>
+  </si>
+  <si>
+    <t>Claim Manager is logged in.</t>
+  </si>
+  <si>
+    <t>Option to Add Agreement should not be available in the Claim Manager login.</t>
+  </si>
+  <si>
+    <t>Admin is logged in.</t>
+  </si>
+  <si>
+    <t>Admin                     Welcome@123</t>
+  </si>
+  <si>
+    <t>Option to Add Agreement should not be available in the Admin login.</t>
+  </si>
+  <si>
+    <t>Option to Add Agreement should  be available in the Admin login.</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_06</t>
+  </si>
+  <si>
+    <t>Option to Add Agreement shoulde be available in the Admin login.</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_07</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_08</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_09</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_10</t>
+  </si>
+  <si>
+    <t>1)Click on Care Sales available in menu options.                                    2) Click on Nissan Care- Sales dropdown.                     3) Now View the Sales page.</t>
+  </si>
+  <si>
+    <t>1)Click on NissanEW Sales available in menu options.                                    2) Now View the Sales page.</t>
+  </si>
+  <si>
+    <t>1)Click on NissanEW Sales available in menu options.                                    2)) Now View the Sales page.</t>
+  </si>
+  <si>
+    <t>To verify if the Dealer is able to Edit the previously added DatsunCare Sales agreement after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Nissan EW Sales is available in Admin login or not after making the Datsun Care  add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Nissan EW Sales is available in claim manager login or not after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Nissan Care Sales is available in Admin login or not after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Nissan Care Sales is available in claim manager login or not after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Datsun Care Sales is available in Admin login or not after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Datsun Care Sales is available in claim manager login or not after making theDatsun Care  add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Datsun Care Sales is available in dealer login or not after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Nissan Care Sales is available in Dealer login or not after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the option to Add Agreement in Nissan EW Sales is available in Dealer login or not after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>Dealer should be able to edit the agreement.</t>
+  </si>
+  <si>
+    <t>1)Click on Care Sales available in menu options.                                    2) Click on Datsun Care- Sales dropdown.                     3) Now click on agreement to be edit.    4) Edit the agreement and claick on Save button.</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_11</t>
+  </si>
+  <si>
+    <t>TC_InactiveDatsunCare_12</t>
+  </si>
+  <si>
+    <t>To verify if the Admin is able to Edit the previously added DatsunCare Sales agreement after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>To verify if the Claim Manager is able to Edit the previously added DatsunCare Sales agreement after making the Datsun Care add agreement inactive.</t>
+  </si>
+  <si>
+    <t>tvs-nissan                       Welcome@1234</t>
+  </si>
+  <si>
+    <t>Option to Add Agreement should not  be available in the Claim Manager login.</t>
+  </si>
+  <si>
+    <t>Admin should not be able  to edit the agreement.</t>
+  </si>
+  <si>
+    <t>There should not be an option to edit the agreement in and Admin login.</t>
+  </si>
+  <si>
+    <t>Claim Manager  should not  be able to edit the agreement.</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>No. of test Written</t>
+  </si>
+  <si>
+    <t>No. of test executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>InactiveDatsunCare</t>
+  </si>
+  <si>
+    <t>Nissan Datsun Care</t>
+  </si>
+  <si>
+    <t>Lead Dev: Vikash Jha/ Ranjeet</t>
+  </si>
+  <si>
+    <t>Vikas Jha and Ranjeet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,8 +769,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -579,28 +783,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,30 +847,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF1F497D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -760,13 +956,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,11 +1099,6 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -860,45 +1127,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,12 +1159,100 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{CC00A346-0490-4EA1-A7EF-E249922F9141}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -951,760 +1267,134 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Priya" refreshedDate="43872.738065509257" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="44" xr:uid="{72C3AC44-6DEA-48A5-8626-97938EBCF7AD}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A6:K1048576" sheet="Test Cases_Reports"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Test Case ID/Module" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
-        <s v="TC1_DC _Claim Dump"/>
-        <s v="TC2_DC _Claim Dump"/>
-        <s v="TC3_DC _Claim Dump"/>
-        <s v="TC4_DC _Claim Dump"/>
-        <s v="TC5_DC _Claim Dump"/>
-        <s v="TC6_DC _Claim Periodic_Maintenance "/>
-        <s v="TC7_DC_Claim Periodic_Maintenance "/>
-        <s v="TC8_DC_Claim Wear_and_Tear"/>
-        <s v="TC9_DC_Claim Wear_and_Tear"/>
-        <s v="TC10_NC _Claim Dump"/>
-        <s v="TC11_NC _Claim Dump"/>
-        <s v="TC12_NC _Claim Dump"/>
-        <s v="TC13_NC _Claim Dump"/>
-        <s v="TC14_NC _Claim Dump"/>
-        <s v="TC15_NC _Claim Periodic_Maintenance "/>
-        <s v="TC16_NC_Claim Periodic_Maintenance "/>
-        <s v="TC17_NC_Claim Wear_and_Tear"/>
-        <s v="TC18_NC_Optional_Periodic_Maintenance"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Test Case Summary" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Pre - Conditions" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Test Case Steps" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
-    </cacheField>
-    <cacheField name="Test Data" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Actual Result" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Attachments/Links" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Expected Result" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Priority" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <m/>
-        <s v="High"/>
-        <s v="Low"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Severaity" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <m/>
-        <s v="Low"/>
-        <s v="High"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Status" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Pass"/>
-        <s v="Fail"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33228</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1121095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F210419-3CE6-45A4-B5FD-307E4E96545C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525001" y="9037674"/>
+          <a:ext cx="1373372" cy="2450165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="44">
-  <r>
-    <x v="0"/>
-    <s v="To verify if the user is able to download the DC Claim Dump excel file or not,."/>
-    <s v="User is already logged in "/>
-    <s v="1)Click on Reports menu item.                                          2)Click on Datsun Care Report.                                         3)Click on Datsun Care Claim Dump link.                  4)Select the vallid dates. 5)Click on Generate Now.                                    "/>
-    <s v="Start Date: 01/01/2020              End Date: 29/02/2020"/>
-    <s v="User is able to download the excel file of claims dump report under datsun care."/>
-    <m/>
-    <s v="User should be  able to download the excel file of claims dump report under datsun care."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="To verify if the downloaded excel file have all the claims within the slectect time slot."/>
-    <s v="User is already logged in "/>
-    <s v="1)Count the total number of claims.                    2)Check the total count of claims on web-portal.                       "/>
-    <m/>
-    <s v="Total count on both excel and portal should is same."/>
-    <m/>
-    <s v="Total count on both excel and portal should be same."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="To verify if the field lables and its corresponding data for perticular agreement number and service request number is same as that of portal or not."/>
-    <s v="User is already logged in "/>
-    <s v="1)Download the DC Claim Dump excel file available under reports and check it with the entries on the portal."/>
-    <m/>
-    <s v="All the entries on portal and excel file are same."/>
-    <m/>
-    <s v="All the entries should be same as on the portal."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Customer name should have a space between first and last name."/>
-    <s v="User is already logged in "/>
-    <s v="1)Download the DC Claim Dump excel file available under reports and check it with the entries on the portal."/>
-    <m/>
-    <s v="Customer name should have a space between first and last name."/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Enhancemnt: Service request should get change to Service Request Number"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="To verify if the user is able to download the DC Claim Periodic Maintenance file or not,."/>
-    <s v="User is already logged in "/>
-    <s v="1)Click on Reports menu item.                                          2)Click on Datsun Care Report.                                         3)Click on Datsun Care Periodic Maintenance.                 4)Select the vallid dates. 5)Click on Generate Now.                                    "/>
-    <s v="Start Date: 01/01/2020              End Date: 29/02/2020"/>
-    <s v="User is able to download the excel file of DC Periodic_Maintenance   report under datsun care."/>
-    <m/>
-    <s v="User should be  able to download the excel file of Periodic_Maintenance  report under datsun care."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="To verify if the field lables and its corresponding data for perticular agreement number and service request number is same as that of portal or not."/>
-    <s v="User is already logged in "/>
-    <s v="1)Download the DC Claim Periodic Maintenance excel file available under reports and check it with the entries on the portal."/>
-    <m/>
-    <s v="All the entries are same as that of portal but Total MRP should be zero if the quantity against any part is &quot;0&quot; that is if the quantity is 0 then total MRP should be 0 but its still getting computed by taking quantity as 1"/>
-    <s v="https://prnt.sc/r0oede"/>
-    <s v="All the entries should be same as on the portal."/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="To verify if the user is able to download the DC Claim Wear and Teare file or not,."/>
-    <s v="User is already logged in "/>
-    <s v="1)Click on Reports menu item.                                          2)Click on Datsun Care Report.                                         3)Click onDC Claim Wear and Tear.                 4)Select the vallid dates. 5)Click on Generate Now.                                    "/>
-    <s v="Start Date: 01/01/2020              End Date: 29/02/2020"/>
-    <s v="User is able to download the excel file of DC Claim Wear and Tear   report under datsun care."/>
-    <m/>
-    <s v="User should be  able to download the excel file of DC Claim Wear and Tear  report under datsun care."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="To verify if the field lables and its corresponding data for perticular agreement number and service request number is same as that of portal or not."/>
-    <s v="User is already logged in "/>
-    <s v="1)Download the DC Claim Wear and Tear excel file available under reports and check it with the entries on the portal."/>
-    <m/>
-    <s v="All the entries are same as that of portal but Total MRP should be zero if the quantity against any part is &quot;0&quot; that is if the quantity is 0 then total MRP should be 0 but its still getting computed by taking quantity as 1"/>
-    <s v="https://prnt.sc/r0oipc"/>
-    <s v="All the entries should be same as on the portal."/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="To verify if the user is able to download the NC Claim Dump excel file or not,."/>
-    <s v="User is already logged in "/>
-    <s v="1)Click on Reports menu item.                                          2)Click on Nissan Care Report.                                         3)Click on Nissan Care Claim Dump link.                  4)Select the vallid dates. 5)Click on Generate Now.                                    "/>
-    <s v="Start Date: 01/01/2020              End Date: 29/02/2020"/>
-    <s v="User is able to download the excel file of claims dump report under Nissan care."/>
-    <m/>
-    <s v="User should be  able to download the excel file of claims dump report under Nissan care."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="To verify if the downloaded excel file have all the claims within the slectect time slot."/>
-    <s v="User is already logged in "/>
-    <s v="1)Count the total number of claims.                    2)Check the total count of claims on web-portal.                       "/>
-    <m/>
-    <s v="Total count on both excel and portal should is same."/>
-    <m/>
-    <s v="Total count on both excel and portal should be same."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="To verify if the field lables and its corresponding data for perticular agreement number and service request number is same as that of portal or not."/>
-    <s v="User is already logged in "/>
-    <s v="1)Download the NC Claim Dump excel file available under reports and check it with the entries on the portal."/>
-    <m/>
-    <s v="All the entries on portal and excel file are same."/>
-    <m/>
-    <s v="All the entries should be same as on the portal."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Customer name should have a space between first and last name."/>
-    <s v="User is already logged in "/>
-    <s v="1)Download the NC Claim Dump excel file available under reports and check it with the entries on the portal."/>
-    <m/>
-    <s v="Customer name should have a space between first and last name."/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Enhancemnt: Service request should get change to Service Request Number"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="To verify if the user is able to download the NC Claim Periodic Maintenance file or not,."/>
-    <s v="User is already logged in "/>
-    <s v="1)Click on Reports menu item.                                          2)Click on Nissan Care Report.                                         3)Click on Nissan Care Periodic Maintenance.                 4)Select the vallid dates. 5)Click on Generate Now.                                    "/>
-    <s v="Start Date: 01/01/2020              End Date: 29/02/2020"/>
-    <s v="User is able to download the excel file of NC Periodic_Maintenance   report under Nissan care."/>
-    <m/>
-    <s v="User should be  able to download the excel file of Periodic_Maintenance  report under Nissan care."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="To verify if the field lables and its corresponding data for perticular agreement number and service request number is same as that of portal or not."/>
-    <s v="User is already logged in "/>
-    <s v="1)Download the NC Claim Periodic Maintenance excel file available under reports and check it with the entries on the portal."/>
-    <m/>
-    <s v="Total  Marp after multiplication of mrp and qty is wrong."/>
-    <s v="https://prnt.sc/r0orj1"/>
-    <s v="All the entries should be same as on the portal."/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="To verify if the user is able to download the NC Claim Wear and Teare file or not,."/>
-    <s v="User is already logged in "/>
-    <s v="1)Click on Reports menu item.                                          2)Click on Nissan Care Report.                                         3)Click onNC Claim Wear and Tear.                 4)Select the vallid dates. 5)Click on Generate Now.                                    "/>
-    <s v="Start Date: 01/01/2020              End Date: 29/02/2020"/>
-    <s v="User is able to download the excel file of NC Claim Wear and Tear   report under Nissan care."/>
-    <m/>
-    <s v="User should be  able to download the excel file of NC Claim Wear and Tear  report under Nissan care."/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="To verify if the field lables and its corresponding data for perticular agreement number and service request number is same as that of portal or not."/>
-    <s v="User is already logged in "/>
-    <s v="1)Download the NC Claim Wear and Tear excel file available under reports and check it with the entries on the portal."/>
-    <m/>
-    <s v="Total  Marp after multiplication of mrp and qty is wrong."/>
-    <s v="https://prnt.sc/r0otrj"/>
-    <s v="All the entries should be same as on the portal."/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{164E32B4-0051-4059-B07C-6A4D3949572C}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField dataField="1" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="8" hier="-1"/>
-    <pageField fld="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Test Case ID/Module" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5514975" cy="3101162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="5572124" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2003,219 +1693,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0B341B-DB07-417D-B1E9-386D53854E19}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="19" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="3" spans="5:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E3" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+    </row>
+    <row r="4" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="70">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F9" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F10" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="40">
-        <v>6</v>
-      </c>
-      <c r="H11" s="38">
-        <v>4</v>
-      </c>
-      <c r="I11" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="40">
-        <v>2</v>
-      </c>
-      <c r="H12" s="38">
-        <v>1</v>
-      </c>
-      <c r="I12" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="40">
-        <v>2</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="40">
-        <v>6</v>
-      </c>
-      <c r="H14" s="38">
-        <v>4</v>
-      </c>
-      <c r="I14" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="40">
-        <v>2</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="40">
-        <v>2</v>
-      </c>
-      <c r="H16" s="38">
-        <v>1</v>
-      </c>
-      <c r="I16" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="44">
-        <f>SUM(G11:G16)</f>
-        <v>20</v>
-      </c>
-      <c r="H17" s="45">
-        <f>SUM(H11:H16)</f>
+      <c r="G6" s="70">
         <v>12</v>
       </c>
-      <c r="I17" s="46">
-        <f>SUM(I11:I16)</f>
-        <v>8</v>
+      <c r="H6" s="71">
+        <v>12</v>
+      </c>
+      <c r="I6" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="67">
+        <f>SUM(F6)</f>
+        <v>12</v>
+      </c>
+      <c r="G7" s="67">
+        <f>SUM(G6)</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="68">
+        <f>SUM(H6)</f>
+        <v>12</v>
+      </c>
+      <c r="I7" s="69">
+        <f>SUM(I6)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F9:I9"/>
+  <mergeCells count="2">
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014F5CD-E53E-47BF-BFB3-26C4C5AA7C2A}">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+    </row>
+    <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,41 +1971,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="52"/>
+      <c r="H2" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="36"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2279,10 +2015,10 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -2290,10 +2026,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="52"/>
+      <c r="H3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="36"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2302,53 +2038,53 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="33" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:16" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2356,34 +2092,34 @@
       <c r="A5" s="5">
         <v>43872</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>60</v>
+      <c r="B5" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="26"/>
+      <c r="D5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="23"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -2394,30 +2130,30 @@
       <c r="A6" s="5">
         <v>43872</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>62</v>
+      <c r="B6" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
+      <c r="D6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -2428,34 +2164,34 @@
       <c r="A7" s="5">
         <v>43872</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>85</v>
+      <c r="B7" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="23"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -2466,34 +2202,34 @@
       <c r="A8" s="5">
         <v>43872</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>87</v>
+      <c r="B8" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="E8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="23"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -2504,34 +2240,34 @@
       <c r="A9" s="5">
         <v>43872</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>81</v>
+      <c r="B9" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="23"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2542,30 +2278,30 @@
       <c r="A10" s="5">
         <v>43872</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>82</v>
+      <c r="B10" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+        <v>102</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2576,36 +2312,36 @@
       <c r="A11" s="5">
         <v>43872</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>84</v>
+      <c r="B11" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="23" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2616,36 +2352,36 @@
       <c r="A12" s="5">
         <v>43872</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="30" t="s">
+      <c r="I12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2657,13 +2393,13 @@
         <v>43872</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2671,15 +2407,70 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
+    <row r="14" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>43878</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>43878</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:P4" xr:uid="{6CEF6E5F-4300-4051-82BD-3AEE316F9CEC}"/>
+  <autoFilter ref="A4:P4"/>
   <mergeCells count="5">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
@@ -2689,15 +2480,16 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93652AA8-32A9-4F4A-8B5C-BEBFA5AD65CE}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,53 +2509,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="A1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -2771,21 +2563,21 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="42">
+        <v>43871</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="58">
-        <v>43871</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="H4" s="31">
         <v>9978</v>
       </c>
       <c r="I4" s="11"/>
@@ -2794,15 +2586,15 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2811,28 +2603,28 @@
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>12</v>
@@ -2846,93 +2638,93 @@
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="K7" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F8" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>21</v>
@@ -2946,10 +2738,10 @@
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="18"/>
@@ -2965,51 +2757,51 @@
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="K12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>21</v>
@@ -3023,55 +2815,55 @@
     </row>
     <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="H15" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>21</v>
@@ -3085,103 +2877,103 @@
     </row>
     <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -3197,10 +2989,10 @@
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="18"/>
@@ -3220,55 +3012,55 @@
     </row>
     <row r="21" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>21</v>
@@ -3282,55 +3074,55 @@
     </row>
     <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>21</v>
@@ -3642,8 +3434,449 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" xr:uid="{9D6524EE-6B6F-436D-9C4D-6B15DAE6E65E}"/>
+    <hyperlink ref="G13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="39" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="17"/>
+    <col min="8" max="8" width="22.42578125" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="57">
+        <v>43886</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>